--- a/dsDNA_aas_unique.xlsx
+++ b/dsDNA_aas_unique.xlsx
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -811,13 +811,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1457,13 +1457,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1788,16 +1788,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
